--- a/CheckUP/doc/บริษัท CDG คอมพิวเตอร์ 19-12-60-ผลสาตาและX-RAY ใหม่.xlsx
+++ b/CheckUP/doc/บริษัท CDG คอมพิวเตอร์ 19-12-60-ผลสาตาและX-RAY ใหม่.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="840" windowWidth="14895" windowHeight="6885" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="840" windowWidth="14895" windowHeight="6885" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="eye1" sheetId="1" r:id="rId1"/>
-    <sheet name="eye" sheetId="10" r:id="rId2"/>
+    <sheet name="x-ray1" sheetId="10" r:id="rId2"/>
     <sheet name="ผลการตรวจ" sheetId="8" r:id="rId3"/>
     <sheet name="กราฟผลรวม" sheetId="7" r:id="rId4"/>
     <sheet name="กราฟสายตาผิดปกติ" sheetId="6" r:id="rId5"/>
     <sheet name="eyeโรงงาน" sheetId="9" r:id="rId6"/>
-    <sheet name="eye 2" sheetId="11" r:id="rId7"/>
+    <sheet name="x-ray" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eye1'!$A$7:$X$115</definedName>
@@ -1794,6 +1794,12 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1818,17 +1824,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1883,7 +1883,7 @@
     <cellStyle name="Normal 9" xfId="18"/>
     <cellStyle name="ปกติ 2" xfId="22"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="78">
     <dxf>
       <font>
         <b/>
@@ -1896,6 +1896,28 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
       </font>
     </dxf>
     <dxf>
@@ -1924,6 +1946,32 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1939,11 +1987,88 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -1972,478 +2097,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
       </font>
     </dxf>
     <dxf>
@@ -2660,6 +2314,71 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
       </font>
     </dxf>
     <dxf>
@@ -3451,11 +3170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="321817072"/>
-        <c:axId val="321817616"/>
+        <c:axId val="1695464160"/>
+        <c:axId val="1695461440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="321817072"/>
+        <c:axId val="1695464160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3465,7 +3184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321817616"/>
+        <c:crossAx val="1695461440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3473,7 +3192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321817616"/>
+        <c:axId val="1695461440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321817072"/>
+        <c:crossAx val="1695464160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4003,7 +3722,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="24" customHeight="1"/>
@@ -4022,70 +3741,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:23" s="37" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
     </row>
     <row r="3" spans="1:23" s="37" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:23" s="37" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="49"/>
@@ -4108,81 +3827,81 @@
       <c r="R4" s="49"/>
     </row>
     <row r="5" spans="1:23" s="38" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="69" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="63" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="38" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="64" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="62"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="39" customFormat="1" ht="24" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="48" t="s">
         <v>6</v>
       </c>
@@ -4213,10 +3932,10 @@
       <c r="O7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="63"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="65"/>
     </row>
     <row r="8" spans="1:23" s="53" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="40">
@@ -8263,11 +7982,6 @@
     <sortCondition ref="A7:A86"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="R5:R7"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -8280,49 +7994,54 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P5:P7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="R5:R7"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:R95">
-    <cfRule type="cellIs" dxfId="116" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="27" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q4 P124:Q1048576 P8:Q95">
-    <cfRule type="cellIs" dxfId="115" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q95">
-    <cfRule type="cellIs" dxfId="114" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E1048576 E1:E95">
-    <cfRule type="cellIs" dxfId="113" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P124:Q1048576 P1:Q95">
-    <cfRule type="cellIs" dxfId="112" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="111" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="109" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="108" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8338,11 +8057,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="43" bestFit="1" customWidth="1"/>
@@ -8358,70 +8077,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:23" s="37" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
     </row>
     <row r="3" spans="1:23" s="37" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:23" s="37" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="49">
@@ -8489,81 +8208,81 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="38" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="69" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="63" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="38" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="64" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="62"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="39" customFormat="1" ht="24" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="60" t="s">
         <v>6</v>
       </c>
@@ -8594,10 +8313,10 @@
       <c r="O7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="63"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="65"/>
       <c r="T7" s="39" t="s">
         <v>320</v>
       </c>
@@ -9521,7 +9240,7 @@
         <v>-100/</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" ref="U21:U84" si="5">CONCATENATE(G25,"/",I25)</f>
+        <f t="shared" ref="U25:U84" si="5">CONCATENATE(G25,"/",I25)</f>
         <v>-25/</v>
       </c>
     </row>
@@ -12720,7 +12439,7 @@
         <v>ปกติ</v>
       </c>
       <c r="Q92" s="35" t="str">
-        <f t="shared" ref="Q92:Q127" si="15">IF(E92="สายตายาว-เอียง","ปกติ",IF(E92="ไม่เข้ารับการตรวจ","-",IF(E92="สายตาปกติ","ปกติ",IF(E92="สายตาสั้น","ปกติ",IF(E92="สายตาสั้น-เอียง","ปกติ",IF(E92="สายตาสั้น-ยาวมีอายุ","ปกติ",IF(E92="สายตาสั้น-เอียง-ยาวมีอายุ","ปกติ",IF(E92="สายตาเอียง","ปกติ",IF(E92="สายตาเอียง-ยาวมีอายุ","ปกติ",IF(E92="สายตายาวมีอายุ","ปกติ",IF(E92="สายตายาว-ยาวมีอายุ","ปกติ",IF(E92="สายตายาว-เอียง-ยาวมีอายุ","ปกติ",IF(E92="-","-",IF(E92="สายตายาวมองไกล","ปกติ",IF(E92="พบจักษุแพทย์","ปกติ")))))))))))))))</f>
+        <f t="shared" ref="Q92:Q95" si="15">IF(E92="สายตายาว-เอียง","ปกติ",IF(E92="ไม่เข้ารับการตรวจ","-",IF(E92="สายตาปกติ","ปกติ",IF(E92="สายตาสั้น","ปกติ",IF(E92="สายตาสั้น-เอียง","ปกติ",IF(E92="สายตาสั้น-ยาวมีอายุ","ปกติ",IF(E92="สายตาสั้น-เอียง-ยาวมีอายุ","ปกติ",IF(E92="สายตาเอียง","ปกติ",IF(E92="สายตาเอียง-ยาวมีอายุ","ปกติ",IF(E92="สายตายาวมีอายุ","ปกติ",IF(E92="สายตายาว-ยาวมีอายุ","ปกติ",IF(E92="สายตายาว-เอียง-ยาวมีอายุ","ปกติ",IF(E92="-","-",IF(E92="สายตายาวมองไกล","ปกติ",IF(E92="พบจักษุแพทย์","ปกติ")))))))))))))))</f>
         <v>ปกติ</v>
       </c>
       <c r="R92" s="35" t="str">
@@ -12783,7 +12502,7 @@
         <v>-200/</v>
       </c>
       <c r="U93" t="str">
-        <f t="shared" ref="U85:U95" si="16">CONCATENATE(G93,"/",I93)</f>
+        <f t="shared" ref="U93" si="16">CONCATENATE(G93,"/",I93)</f>
         <v>-200/</v>
       </c>
     </row>
@@ -12937,13 +12656,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -12954,49 +12666,56 @@
     <mergeCell ref="F5:O5"/>
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:R95">
-    <cfRule type="cellIs" dxfId="77" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="9" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q3 P124:Q1048576 P8:Q95">
-    <cfRule type="cellIs" dxfId="75" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q95">
-    <cfRule type="cellIs" dxfId="73" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E1048576 E1:E3 E5:E95">
-    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P124:Q1048576 P1:Q3 P5:Q95">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="67" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="63" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14552,7 +14271,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14575,72 +14294,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
       <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="34.5">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
       <c r="S2" s="37"/>
     </row>
     <row r="3" spans="1:19" ht="34.5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
       <c r="S3" s="37"/>
     </row>
     <row r="4" spans="1:19" ht="23.25">
@@ -14665,81 +14384,81 @@
       <c r="S4" s="37"/>
     </row>
     <row r="5" spans="1:19" ht="23.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="69" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="63" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="23.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="64" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="62"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="64"/>
     </row>
     <row r="7" spans="1:19" ht="23.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="55" t="s">
         <v>6</v>
       </c>
@@ -14770,10 +14489,10 @@
       <c r="O7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="63"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="65"/>
     </row>
     <row r="8" spans="1:19" ht="29.25" customHeight="1">
       <c r="A8" s="59">
@@ -15636,6 +15355,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -15647,160 +15372,154 @@
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:Q4 P8:Q12 P16:Q17 P23:Q23 P26:Q27">
-    <cfRule type="cellIs" dxfId="107" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="38" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E12 E16:E17 E23 E26:E27">
-    <cfRule type="cellIs" dxfId="106" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="37" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q12 P16:Q17 P23:Q23 P26:Q27">
-    <cfRule type="cellIs" dxfId="105" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:R12 P23:R23 P16:R17 P26:R27">
-    <cfRule type="cellIs" dxfId="104" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="35" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q12 P23:Q23 P16:Q17 P26:Q27">
-    <cfRule type="cellIs" dxfId="103" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="33" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:R21">
-    <cfRule type="cellIs" dxfId="102" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="25" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q21">
-    <cfRule type="cellIs" dxfId="101" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q21">
-    <cfRule type="cellIs" dxfId="100" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="23" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="cellIs" dxfId="99" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="22" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q21">
-    <cfRule type="cellIs" dxfId="98" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:R22">
-    <cfRule type="cellIs" dxfId="97" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="20" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="cellIs" dxfId="96" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="19" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="cellIs" dxfId="95" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="18" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="94" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="17" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="cellIs" dxfId="93" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:R25">
-    <cfRule type="cellIs" dxfId="92" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="15" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="cellIs" dxfId="91" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="cellIs" dxfId="90" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="13" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="89" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:R19">
-    <cfRule type="cellIs" dxfId="87" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="cellIs" dxfId="86" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="cellIs" dxfId="85" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:R15">
-    <cfRule type="cellIs" dxfId="82" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q15">
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q15">
-    <cfRule type="cellIs" dxfId="80" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q15">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15813,8 +15532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:O10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15837,72 +15556,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
       <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:21" ht="34.5">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
       <c r="S2" s="37"/>
     </row>
     <row r="3" spans="1:21" ht="34.5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
       <c r="S3" s="37"/>
     </row>
     <row r="4" spans="1:21" ht="23.25">
@@ -15971,81 +15690,81 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="23.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="69" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="63" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="23.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="64" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="62"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="64"/>
     </row>
     <row r="7" spans="1:21" ht="24">
-      <c r="A7" s="69"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="60" t="s">
         <v>6</v>
       </c>
@@ -16076,10 +15795,10 @@
       <c r="O7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="63"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="65"/>
       <c r="T7" s="39" t="s">
         <v>320</v>
       </c>
@@ -16262,11 +15981,11 @@
         <v>8</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" ref="T9:T27" si="0">CONCATENATE(F11,"/",H11)</f>
+        <f t="shared" ref="T11:T25" si="0">CONCATENATE(F11,"/",H11)</f>
         <v>-50/</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ref="U9:U27" si="1">CONCATENATE(G11,"/",I11)</f>
+        <f t="shared" ref="U11:U25" si="1">CONCATENATE(G11,"/",I11)</f>
         <v>-50/</v>
       </c>
     </row>
@@ -16986,13 +16705,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -17003,154 +16715,161 @@
     <mergeCell ref="F5:O5"/>
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:Q3 P8:Q12 P16:Q17 P23:Q23 P26:Q27">
-    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E3 E16:E17 E23 E26:E27 E5:E12">
-    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q3 P16:Q17 P23:Q23 P26:Q27 P5:Q12">
-    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:R12 P23:R23 P16:R17 P26:R27">
-    <cfRule type="cellIs" dxfId="53" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q12 P23:Q23 P16:Q17 P26:Q27">
-    <cfRule type="cellIs" dxfId="51" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:R21">
-    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q21">
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q21">
-    <cfRule type="cellIs" dxfId="45" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q21">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:R22">
-    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="cellIs" dxfId="35" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:R25">
-    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="cellIs" dxfId="25" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:R19">
-    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:R15">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"ควรสวมแว่นสายตา"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q15">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q15">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"ผิดปกติ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"ไม่เข้ารับการตรวจ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
